--- a/save_accuracy.xlsx
+++ b/save_accuracy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2178"/>
+  <dimension ref="A1:F2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47823,7 +47823,7 @@
         <v>100</v>
       </c>
       <c r="F2154" t="n">
-        <v>75.81290435791016</v>
+        <v>79.06964874267578</v>
       </c>
     </row>
     <row r="2155">
@@ -47845,7 +47845,7 @@
         <v>200</v>
       </c>
       <c r="F2155" t="n">
-        <v>81.84429168701172</v>
+        <v>82.64950561523438</v>
       </c>
     </row>
     <row r="2156">
@@ -47867,7 +47867,7 @@
         <v>300</v>
       </c>
       <c r="F2156" t="n">
-        <v>83.66499328613281</v>
+        <v>83.35726928710938</v>
       </c>
     </row>
     <row r="2157">
@@ -47889,7 +47889,7 @@
         <v>400</v>
       </c>
       <c r="F2157" t="n">
-        <v>82.15201568603516</v>
+        <v>84.98307800292969</v>
       </c>
     </row>
     <row r="2158">
@@ -47911,7 +47911,7 @@
         <v>500</v>
       </c>
       <c r="F2158" t="n">
-        <v>84.47533416748047</v>
+        <v>84.98820495605469</v>
       </c>
     </row>
     <row r="2159">
@@ -47933,7 +47933,7 @@
         <v>600</v>
       </c>
       <c r="F2159" t="n">
-        <v>84.64457702636719</v>
+        <v>85.49081420898438</v>
       </c>
     </row>
     <row r="2160">
@@ -47955,7 +47955,7 @@
         <v>700</v>
       </c>
       <c r="F2160" t="n">
-        <v>85.86521911621094</v>
+        <v>86.11652374267578</v>
       </c>
     </row>
     <row r="2161">
@@ -47977,7 +47977,7 @@
         <v>800</v>
       </c>
       <c r="F2161" t="n">
-        <v>85.48568725585938</v>
+        <v>85.82418823242188</v>
       </c>
     </row>
     <row r="2162">
@@ -47999,7 +47999,7 @@
         <v>900</v>
       </c>
       <c r="F2162" t="n">
-        <v>86.62939453125</v>
+        <v>87.04482269287109</v>
       </c>
     </row>
     <row r="2163">
@@ -48021,7 +48021,7 @@
         <v>1000</v>
       </c>
       <c r="F2163" t="n">
-        <v>86.79351806640625</v>
+        <v>87.23971557617188</v>
       </c>
     </row>
     <row r="2164">
@@ -48043,7 +48043,7 @@
         <v>1100</v>
       </c>
       <c r="F2164" t="n">
-        <v>86.59862518310547</v>
+        <v>87.18330383300781</v>
       </c>
     </row>
     <row r="2165">
@@ -48065,7 +48065,7 @@
         <v>1200</v>
       </c>
       <c r="F2165" t="n">
-        <v>87.36793518066406</v>
+        <v>85.74725341796875</v>
       </c>
     </row>
     <row r="2166">
@@ -48087,7 +48087,7 @@
         <v>1300</v>
       </c>
       <c r="F2166" t="n">
-        <v>86.99353790283203</v>
+        <v>87.61411285400391</v>
       </c>
     </row>
     <row r="2167">
@@ -48109,7 +48109,7 @@
         <v>1400</v>
       </c>
       <c r="F2167" t="n">
-        <v>87.32177734375</v>
+        <v>87.37818908691406</v>
       </c>
     </row>
     <row r="2168">
@@ -48131,7 +48131,7 @@
         <v>1500</v>
       </c>
       <c r="F2168" t="n">
-        <v>87.57308959960938</v>
+        <v>87.76797485351562</v>
       </c>
     </row>
     <row r="2169">
@@ -48153,7 +48153,7 @@
         <v>1600</v>
       </c>
       <c r="F2169" t="n">
-        <v>87.73720550537109</v>
+        <v>87.88593292236328</v>
       </c>
     </row>
     <row r="2170">
@@ -48175,7 +48175,7 @@
         <v>1700</v>
       </c>
       <c r="F2170" t="n">
-        <v>88.11160278320312</v>
+        <v>88.17827606201172</v>
       </c>
     </row>
     <row r="2171">
@@ -48197,7 +48197,7 @@
         <v>1800</v>
       </c>
       <c r="F2171" t="n">
-        <v>88.03466796875</v>
+        <v>88.36290740966797</v>
       </c>
     </row>
     <row r="2172">
@@ -48219,7 +48219,7 @@
         <v>1900</v>
       </c>
       <c r="F2172" t="n">
-        <v>88.13724517822266</v>
+        <v>88.52189636230469</v>
       </c>
     </row>
     <row r="2173">
@@ -48241,7 +48241,7 @@
         <v>2000</v>
       </c>
       <c r="F2173" t="n">
-        <v>87.90132141113281</v>
+        <v>88.14237213134766</v>
       </c>
     </row>
     <row r="2174">
@@ -48263,7 +48263,7 @@
         <v>2100</v>
       </c>
       <c r="F2174" t="n">
-        <v>88.41932678222656</v>
+        <v>88.56292724609375</v>
       </c>
     </row>
     <row r="2175">
@@ -48285,7 +48285,7 @@
         <v>2200</v>
       </c>
       <c r="F2175" t="n">
-        <v>88.49112701416016</v>
+        <v>88.732177734375</v>
       </c>
     </row>
     <row r="2176">
@@ -48307,7 +48307,7 @@
         <v>2300</v>
       </c>
       <c r="F2176" t="n">
-        <v>88.20391845703125</v>
+        <v>88.732177734375</v>
       </c>
     </row>
     <row r="2177">
@@ -48329,7 +48329,7 @@
         <v>2400</v>
       </c>
       <c r="F2177" t="n">
-        <v>88.79885101318359</v>
+        <v>88.96297454833984</v>
       </c>
     </row>
     <row r="2178">
@@ -48351,7 +48351,227 @@
         <v>2500</v>
       </c>
       <c r="F2178" t="n">
-        <v>88.732177734375</v>
+        <v>88.95271301269531</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2179" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>88.93732452392578</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2180" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>88.90142822265625</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2181" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>89.18350219726562</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2182" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>89.16299438476562</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>2181</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2183" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>89.19889068603516</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>2182</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2184" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>79.27992248535156</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2185" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>81.07498168945312</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2186" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>83.23930358886719</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2187" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>84.48046112060547</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2188" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>83.27520751953125</v>
       </c>
     </row>
   </sheetData>

--- a/save_accuracy.xlsx
+++ b/save_accuracy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2188"/>
+  <dimension ref="A1:F2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48483,7 +48483,7 @@
         <v>100</v>
       </c>
       <c r="F2184" t="n">
-        <v>79.27992248535156</v>
+        <v>78.66447448730469</v>
       </c>
     </row>
     <row r="2185">
@@ -48505,7 +48505,7 @@
         <v>200</v>
       </c>
       <c r="F2185" t="n">
-        <v>81.07498168945312</v>
+        <v>81.21345520019531</v>
       </c>
     </row>
     <row r="2186">
@@ -48527,7 +48527,7 @@
         <v>300</v>
       </c>
       <c r="F2186" t="n">
-        <v>83.23930358886719</v>
+        <v>82.90081024169922</v>
       </c>
     </row>
     <row r="2187">
@@ -48549,7 +48549,7 @@
         <v>400</v>
       </c>
       <c r="F2187" t="n">
-        <v>84.48046112060547</v>
+        <v>83.96245574951172</v>
       </c>
     </row>
     <row r="2188">
@@ -48571,7 +48571,2251 @@
         <v>500</v>
       </c>
       <c r="F2188" t="n">
-        <v>83.27520751953125</v>
+        <v>83.96758270263672</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>2187</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2189" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>83.72653961181641</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2190" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>85.91650390625</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>2189</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2191" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>84.26505279541016</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2192" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>85.08564758300781</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="1" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2193" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>86.77812957763672</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="1" t="n">
+        <v>2192</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2194" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>87.11149597167969</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="1" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2195" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>86.83454895019531</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="1" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2196" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>86.56272125244141</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2197" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>87.47563934326172</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="1" t="n">
+        <v>2196</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2198" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>87.62437438964844</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>2197</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2199" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>88.09621429443359</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="1" t="n">
+        <v>2198</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2200" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>87.88080596923828</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="1" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2201" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>86.91661071777344</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2202" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>87.97312164306641</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2203" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>88.25007629394531</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2204" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>88.34752655029297</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2205" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>88.59370422363281</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="1" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2206" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>88.60908508300781</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2207" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>88.52189636230469</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="1" t="n">
+        <v>2206</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2208" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>88.77833557128906</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="1" t="n">
+        <v>2207</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2209" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>88.85014343261719</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>2208</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2210" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>88.99374389648438</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="1" t="n">
+        <v>2209</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2211" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>89.26043701171875</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="1" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2212" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>89.14247894287109</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="1" t="n">
+        <v>2211</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2213" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>89.19376373291016</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="1" t="n">
+        <v>2212</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2214" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>75.42311859130859</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="1" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2215" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>81.64427185058594</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="1" t="n">
+        <v>2214</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2216" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>82.26484680175781</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="1" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2217" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>83.48548126220703</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="1" t="n">
+        <v>2216</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2218" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>79.9312744140625</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="1" t="n">
+        <v>2217</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2219" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>80.94676208496094</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="1" t="n">
+        <v>2218</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2220" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>85.20361328125</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="1" t="n">
+        <v>2219</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2221" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>85.77803039550781</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="1" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2222" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>85.26515197753906</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2223" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>86.24474334716797</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="1" t="n">
+        <v>2222</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2224" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>86.38835144042969</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="1" t="n">
+        <v>2223</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2225" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>85.98830413818359</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="1" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2226" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>87.07559967041016</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="1" t="n">
+        <v>2225</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2227" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>86.82941436767578</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>2226</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2228" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>85.66007232666016</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="1" t="n">
+        <v>2227</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2229" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>87.66027069091797</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="1" t="n">
+        <v>2228</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2230" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>87.43460845947266</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="1" t="n">
+        <v>2229</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2231" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>87.84490966796875</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="1" t="n">
+        <v>2230</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2232" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>87.08585357666016</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="n">
+        <v>2231</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2233" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>87.98851013183594</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="1" t="n">
+        <v>2232</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2234" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>88.27571868896484</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="1" t="n">
+        <v>2233</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2235" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>88.29623413085938</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="1" t="n">
+        <v>2234</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2236" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>88.53215789794922</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="1" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2237" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>87.74745941162109</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="1" t="n">
+        <v>2236</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2238" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>88.56805419921875</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="1" t="n">
+        <v>2237</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2239" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>88.94758605957031</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="1" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2240" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>88.71166229248047</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2241" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>88.83474731445312</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="1" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2242" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>88.79372406005859</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="1" t="n">
+        <v>2241</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2243" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>88.80398559570312</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="1" t="n">
+        <v>2242</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2244" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>77.25407409667969</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="1" t="n">
+        <v>2243</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2245" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>75.49491882324219</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="1" t="n">
+        <v>2244</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2246" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>81.15191650390625</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="1" t="n">
+        <v>2245</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2247" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>79.71073913574219</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="1" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2248" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2248" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>83.65986633300781</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="1" t="n">
+        <v>2247</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2249" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>83.38804626464844</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="1" t="n">
+        <v>2248</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2250" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>84.61380767822266</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="1" t="n">
+        <v>2249</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2251" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>84.29069519042969</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="1" t="n">
+        <v>2250</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2252" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>85.48056793212891</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="1" t="n">
+        <v>2251</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2253" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2253" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>85.67545318603516</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="1" t="n">
+        <v>2252</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2254" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>85.39337158203125</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="1" t="n">
+        <v>2253</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2255" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>79.5927734375</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="1" t="n">
+        <v>2254</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2256" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>86.51143646240234</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="1" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2257" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2257" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2257" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>84.59841918945312</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="1" t="n">
+        <v>2256</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2258" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2258" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2258" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>86.87045288085938</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" s="1" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2259" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2259" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2259" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>87.17304229736328</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="1" t="n">
+        <v>2258</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2260" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2260" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2260" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>87.13201141357422</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="1" t="n">
+        <v>2259</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2261" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2261" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2261" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>85.19847869873047</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="1" t="n">
+        <v>2260</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2262" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>87.02430725097656</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="1" t="n">
+        <v>2261</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2263" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>87.71156311035156</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="1" t="n">
+        <v>2262</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2264" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>87.96286773681641</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="1" t="n">
+        <v>2263</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2265" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>87.86029052734375</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="1" t="n">
+        <v>2264</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2266" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2266" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2266" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>86.58837127685547</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="1" t="n">
+        <v>2265</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2267" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>88.18853759765625</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="1" t="n">
+        <v>2266</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2268" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>88.06031036376953</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="1" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2269" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>88.30136871337891</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="1" t="n">
+        <v>2268</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2270" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2270" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2270" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>88.17827606201172</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="1" t="n">
+        <v>2269</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2271" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2271" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>88.49625396728516</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="1" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2272" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2272" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2272" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>88.53215789794922</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="1" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2273" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>88.51164245605469</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="1" t="n">
+        <v>2272</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2274" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2274" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2274" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>80.91599273681641</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="1" t="n">
+        <v>2273</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2275" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2275" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2275" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>83.65986633300781</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="1" t="n">
+        <v>2274</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2276" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>85.49594879150391</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="1" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2277" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2277" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2277" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>86.28064727783203</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="1" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2278" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>86.66017150878906</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="1" t="n">
+        <v>2277</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2279" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2279" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2279" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>85.5472412109375</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="1" t="n">
+        <v>2278</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2280" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2280" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2280" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>87.60385131835938</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="1" t="n">
+        <v>2279</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2281" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2281" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2281" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>87.52179718017578</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" s="1" t="n">
+        <v>2280</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2282" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2282" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2282" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>87.66027069091797</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="1" t="n">
+        <v>2281</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2283" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2283" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2283" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>88.26545715332031</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="1" t="n">
+        <v>2282</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2284" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2284" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2284" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>88.05519104003906</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="1" t="n">
+        <v>2283</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2285" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>88.46548461914062</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="1" t="n">
+        <v>2284</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2286" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>88.19878387451172</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="1" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2287" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>88.58856964111328</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="1" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2288" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>88.87578582763672</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="1" t="n">
+        <v>2287</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2289" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>88.97322845458984</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="1" t="n">
+        <v>2288</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2290" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>88.88603973388672</v>
       </c>
     </row>
   </sheetData>

--- a/save_accuracy.xlsx
+++ b/save_accuracy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2290"/>
+  <dimension ref="A1:F2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50463,7 +50463,7 @@
         <v>100</v>
       </c>
       <c r="F2274" t="n">
-        <v>80.91599273681641</v>
+        <v>80.35696411132812</v>
       </c>
     </row>
     <row r="2275">
@@ -50485,7 +50485,7 @@
         <v>200</v>
       </c>
       <c r="F2275" t="n">
-        <v>83.65986633300781</v>
+        <v>83.19314575195312</v>
       </c>
     </row>
     <row r="2276">
@@ -50507,7 +50507,7 @@
         <v>300</v>
       </c>
       <c r="F2276" t="n">
-        <v>85.49594879150391</v>
+        <v>85.5523681640625</v>
       </c>
     </row>
     <row r="2277">
@@ -50529,7 +50529,7 @@
         <v>400</v>
       </c>
       <c r="F2277" t="n">
-        <v>86.28064727783203</v>
+        <v>85.62929534912109</v>
       </c>
     </row>
     <row r="2278">
@@ -50551,7 +50551,7 @@
         <v>500</v>
       </c>
       <c r="F2278" t="n">
-        <v>86.66017150878906</v>
+        <v>86.35244750976562</v>
       </c>
     </row>
     <row r="2279">
@@ -50573,7 +50573,7 @@
         <v>600</v>
       </c>
       <c r="F2279" t="n">
-        <v>85.5472412109375</v>
+        <v>86.60887908935547</v>
       </c>
     </row>
     <row r="2280">
@@ -50595,7 +50595,7 @@
         <v>700</v>
       </c>
       <c r="F2280" t="n">
-        <v>87.60385131835938</v>
+        <v>86.89096832275391</v>
       </c>
     </row>
     <row r="2281">
@@ -50617,7 +50617,7 @@
         <v>800</v>
       </c>
       <c r="F2281" t="n">
-        <v>87.52179718017578</v>
+        <v>87.07559967041016</v>
       </c>
     </row>
     <row r="2282">
@@ -50639,7 +50639,7 @@
         <v>900</v>
       </c>
       <c r="F2282" t="n">
-        <v>87.66027069091797</v>
+        <v>88.15262603759766</v>
       </c>
     </row>
     <row r="2283">
@@ -50661,7 +50661,7 @@
         <v>1000</v>
       </c>
       <c r="F2283" t="n">
-        <v>88.26545715332031</v>
+        <v>88.01415252685547</v>
       </c>
     </row>
     <row r="2284">
@@ -50683,7 +50683,7 @@
         <v>1100</v>
       </c>
       <c r="F2284" t="n">
-        <v>88.05519104003906</v>
+        <v>87.74745941162109</v>
       </c>
     </row>
     <row r="2285">
@@ -50705,7 +50705,7 @@
         <v>1200</v>
       </c>
       <c r="F2285" t="n">
-        <v>88.46548461914062</v>
+        <v>88.43984222412109</v>
       </c>
     </row>
     <row r="2286">
@@ -50727,7 +50727,7 @@
         <v>1300</v>
       </c>
       <c r="F2286" t="n">
-        <v>88.19878387451172</v>
+        <v>88.39368438720703</v>
       </c>
     </row>
     <row r="2287">
@@ -50749,7 +50749,7 @@
         <v>1400</v>
       </c>
       <c r="F2287" t="n">
-        <v>88.58856964111328</v>
+        <v>88.63986206054688</v>
       </c>
     </row>
     <row r="2288">
@@ -50771,7 +50771,7 @@
         <v>1500</v>
       </c>
       <c r="F2288" t="n">
-        <v>88.87578582763672</v>
+        <v>88.56805419921875</v>
       </c>
     </row>
     <row r="2289">
@@ -50793,7 +50793,7 @@
         <v>1600</v>
       </c>
       <c r="F2289" t="n">
-        <v>88.97322845458984</v>
+        <v>88.69114685058594</v>
       </c>
     </row>
     <row r="2290">
@@ -50815,7 +50815,5573 @@
         <v>1700</v>
       </c>
       <c r="F2290" t="n">
-        <v>88.88603973388672</v>
+        <v>88.48600006103516</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="1" t="n">
+        <v>2289</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2291" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>88.62447357177734</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="1" t="n">
+        <v>2290</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2292" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>89.26043701171875</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="1" t="n">
+        <v>2291</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2293" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>89.18350219726562</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="1" t="n">
+        <v>2292</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2294" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>89.19376373291016</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="1" t="n">
+        <v>2293</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2295" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>89.05529022216797</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="1" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2296" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>89.48609924316406</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="1" t="n">
+        <v>2295</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2297" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>89.37326812744141</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="1" t="n">
+        <v>2296</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2298" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>89.0860595703125</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="1" t="n">
+        <v>2297</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2299" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>89.0809326171875</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="1" t="n">
+        <v>2298</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2300" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>89.55277252197266</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="1" t="n">
+        <v>2299</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2301" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>89.30659484863281</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2302" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2302" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2302" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>89.40403747558594</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="1" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2303" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2303" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>89.47584533691406</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="1" t="n">
+        <v>2302</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2304" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2304" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2304" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>80.50569152832031</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="1" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2305" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2305" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>83.55728912353516</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="1" t="n">
+        <v>2304</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2306" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2306" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>84.38814544677734</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="1" t="n">
+        <v>2305</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2307" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2307" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>86.2652587890625</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" s="1" t="n">
+        <v>2306</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2308" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2308" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>86.80377960205078</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="1" t="n">
+        <v>2307</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2309" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>87.03969573974609</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="1" t="n">
+        <v>2308</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2310" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>86.89096832275391</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="1" t="n">
+        <v>2309</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2311" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>88.15776062011719</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="1" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2312" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>87.41409301757812</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="1" t="n">
+        <v>2311</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2313" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>88.01927947998047</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="1" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2314" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>88.27059173583984</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="1" t="n">
+        <v>2313</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2315" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>88.60395812988281</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="1" t="n">
+        <v>2314</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2316" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>88.64498901367188</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="1" t="n">
+        <v>2315</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2317" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>88.89116668701172</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="1" t="n">
+        <v>2316</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2318" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>88.82962799072266</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="1" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2319" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>88.732177734375</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="1" t="n">
+        <v>2318</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2320" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>88.90142822265625</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="1" t="n">
+        <v>2319</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2321" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>88.99374389648438</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="1" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2322" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>89.28095245361328</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="1" t="n">
+        <v>2321</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2323" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>88.96297454833984</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="1" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2324" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>89.46045684814453</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2325" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>89.32711029052734</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="1" t="n">
+        <v>2324</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2326" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>89.14760589599609</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="1" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2327" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>89.30659484863281</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="1" t="n">
+        <v>2326</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2328" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>89.39378356933594</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="1" t="n">
+        <v>2327</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2329" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>89.15273284912109</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="1" t="n">
+        <v>2328</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2330" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>89.23479461669922</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="1" t="n">
+        <v>2329</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2331" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>89.33223724365234</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2332" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>89.34762573242188</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="1" t="n">
+        <v>2331</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>M-CLIP/M-BERT-Base-ViT-B</t>
+        </is>
+      </c>
+      <c r="C2333" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>89.34762573242188</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="1" t="n">
+        <v>2332</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2334" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>78.43881225585938</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="1" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2335" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>85.23950958251953</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="1" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2336" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>87.08585357666016</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="1" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2337" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2337" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2337" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>88.52703094482422</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="1" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2338" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2338" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2338" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>88.82449340820312</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="1" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2339" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2339" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2339" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>88.90655517578125</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="1" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2340" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2340" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2340" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>89.87075805664062</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="1" t="n">
+        <v>2339</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2341" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2341" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2341" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>89.69125366210938</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2342" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2342" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2342" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>89.94255828857422</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" s="1" t="n">
+        <v>2341</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2343" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2343" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2343" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>90.35798645019531</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="1" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2344" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2344" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2344" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>90.54261779785156</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="1" t="n">
+        <v>2343</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2345" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2345" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2345" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>90.67596435546875</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2346" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2346" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2346" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>90.87085723876953</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="1" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2347" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2347" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2347" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>90.91188812255859</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="1" t="n">
+        <v>2346</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2348" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2348" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2348" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>91.07601165771484</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="1" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2349" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2349" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2349" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>91.02471923828125</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="1" t="n">
+        <v>2348</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2350" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2350" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2350" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>91.26064300537109</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="1" t="n">
+        <v>2349</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2351" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2351" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2351" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>91.32218933105469</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2352" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2352" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2352" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>91.21448516845703</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="1" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2353" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2353" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2353" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>91.39911651611328</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="1" t="n">
+        <v>2352</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2354" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2354" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2354" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>91.38372802734375</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2355" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2355" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2355" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>91.52733612060547</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="1" t="n">
+        <v>2354</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2356" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2356" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2356" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>91.542724609375</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" s="1" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2357" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2357" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2357" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>91.66068267822266</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" s="1" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2358" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2358" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2358" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>91.52733612060547</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" s="1" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2359" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2359" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2359" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>91.52733612060547</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" s="1" t="n">
+        <v>2358</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2360" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2360" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2360" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>91.47092437744141</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" s="1" t="n">
+        <v>2359</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2361" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2361" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2361" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>91.40937042236328</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" s="1" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2362" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2362" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2362" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>91.41450500488281</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" s="1" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2363" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="D2363" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2363" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>91.44014739990234</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" s="1" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2364" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2364" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2364" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>79.04399871826172</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" s="1" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2365" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2365" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2365" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>86.36270141601562</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" s="1" t="n">
+        <v>2364</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2366" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2366" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2366" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>86.93712615966797</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" s="1" t="n">
+        <v>2365</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2367" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2367" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2367" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>85.921630859375</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" s="1" t="n">
+        <v>2366</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2368" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2368" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2368" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>89.62458038330078</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" s="1" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2369" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2369" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2369" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>89.80408477783203</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" s="1" t="n">
+        <v>2368</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2370" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2370" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2370" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>90.03488159179688</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" s="1" t="n">
+        <v>2369</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2371" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2371" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2371" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>89.91178894042969</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" s="1" t="n">
+        <v>2370</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2372" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2372" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2372" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>90.68109130859375</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" s="1" t="n">
+        <v>2371</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2373" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2373" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2373" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>89.06554412841797</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" s="1" t="n">
+        <v>2372</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2374" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2374" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2374" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>90.91188812255859</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" s="1" t="n">
+        <v>2373</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2375" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2375" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2375" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>90.27592468261719</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" s="1" t="n">
+        <v>2374</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2376" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2376" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2376" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>91.46066284179688</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" s="1" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2377" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2377" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2377" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>91.23500061035156</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" s="1" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2378" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2378" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2378" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>91.21961212158203</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" s="1" t="n">
+        <v>2377</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2379" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2379" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2379" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>91.36834716796875</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" s="1" t="n">
+        <v>2378</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2380" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2380" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2380" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>91.31705474853516</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" s="1" t="n">
+        <v>2379</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2381" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2381" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2381" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>91.58888244628906</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" s="1" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2382" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2382" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2382" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>91.51195526123047</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" s="1" t="n">
+        <v>2381</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2383" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2383" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2383" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>91.70684051513672</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" s="1" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2384" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2384" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2384" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>92.01456451416016</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" s="1" t="n">
+        <v>2383</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2385" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2385" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2385" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>92.16329956054688</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" s="1" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2386" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2386" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2386" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>91.8966064453125</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" s="1" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2387" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2387" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2387" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>92.14278411865234</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" s="1" t="n">
+        <v>2386</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2388" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2388" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2388" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>92.04021453857422</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" s="1" t="n">
+        <v>2387</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2389" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2389" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2389" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>92.10688781738281</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" s="1" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2390" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2390" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2390" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>92.19406890869141</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" s="1" t="n">
+        <v>2389</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2391" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2391" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2391" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>92.19920349121094</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" s="1" t="n">
+        <v>2390</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2392" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2392" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2392" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>92.19920349121094</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" s="1" t="n">
+        <v>2391</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2393" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2393" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2393" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>92.23509979248047</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" s="1" t="n">
+        <v>2392</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2394" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2394" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2394" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>67.63258361816406</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" s="1" t="n">
+        <v>2393</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2395" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2395" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2395" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>85.17797088623047</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" s="1" t="n">
+        <v>2394</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2396" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2396" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2396" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>87.01405334472656</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" s="1" t="n">
+        <v>2395</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2397" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2397" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2397" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>87.35767364501953</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" s="1" t="n">
+        <v>2396</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2398" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2398" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2398" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>85.49594879150391</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" s="1" t="n">
+        <v>2397</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2399" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2399" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2399" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>88.51164245605469</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" s="1" t="n">
+        <v>2398</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2400" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2400" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2400" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>89.27069091796875</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" s="1" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2401" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2401" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2401" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>89.7989501953125</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2402" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2402" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2402" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>89.74766540527344</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" s="1" t="n">
+        <v>2401</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2403" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2403" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2403" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>89.97845458984375</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" s="1" t="n">
+        <v>2402</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2404" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2404" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2404" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>90.47594451904297</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" s="1" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2405" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2405" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2405" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>90.94266510009766</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" s="1" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2406" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2406" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2406" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>90.4913330078125</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" s="1" t="n">
+        <v>2405</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2407" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2407" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2407" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>90.65032958984375</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" s="1" t="n">
+        <v>2406</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2408" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2408" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2408" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>91.00420379638672</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" s="1" t="n">
+        <v>2407</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2409" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2409" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2409" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>91.29141235351562</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" s="1" t="n">
+        <v>2408</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2410" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2410" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2410" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>91.34269714355469</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" s="1" t="n">
+        <v>2409</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2411" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2411" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2411" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>91.37347412109375</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" s="1" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2412" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2412" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2412" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>91.60427093505859</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2413" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2413" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2413" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>91.45552825927734</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" s="1" t="n">
+        <v>2412</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2414" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2414" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2414" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>91.66068267822266</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" s="1" t="n">
+        <v>2413</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2415" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2415" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2415" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>91.80941772460938</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" s="1" t="n">
+        <v>2414</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2416" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2416" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2416" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>91.86582946777344</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" s="1" t="n">
+        <v>2415</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2417" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2417" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2417" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>92.17356109619141</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" s="1" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2418" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2418" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2418" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>91.86582946777344</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" s="1" t="n">
+        <v>2417</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2419" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2419" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2419" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>92.07611083984375</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" s="1" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2420" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2420" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2420" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>92.01969146728516</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" s="1" t="n">
+        <v>2419</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2421" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2421" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2421" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>92.15816497802734</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" s="1" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2422" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2422" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2422" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>92.20945739746094</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" s="1" t="n">
+        <v>2421</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2423" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2423" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2423" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>92.22484588623047</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" s="1" t="n">
+        <v>2422</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2424" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2424" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2424" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>79.85434722900391</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" s="1" t="n">
+        <v>2423</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2425" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2425" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2425" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>83.99323272705078</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" s="1" t="n">
+        <v>2424</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2426" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2426" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2426" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>85.09078216552734</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" s="1" t="n">
+        <v>2425</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2427" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2427" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2427" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>84.40866088867188</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" s="1" t="n">
+        <v>2426</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2428" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2428" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2428" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>88.67575836181641</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" s="1" t="n">
+        <v>2427</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2429" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2429" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2429" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>86.9730224609375</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" s="1" t="n">
+        <v>2428</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2430" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2430" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2430" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>87.63975524902344</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" s="1" t="n">
+        <v>2429</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2431" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2431" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2431" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>88.53728485107422</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" s="1" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2432" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2432" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2432" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>89.61431884765625</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" s="1" t="n">
+        <v>2431</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2433" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2433" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2433" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>88.91681671142578</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" s="1" t="n">
+        <v>2432</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2434" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2434" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2434" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>89.22453308105469</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" s="1" t="n">
+        <v>2433</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2435" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2435" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2435" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>89.52713012695312</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" s="1" t="n">
+        <v>2434</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2436" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2436" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2436" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>90.24002838134766</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" s="1" t="n">
+        <v>2435</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2437" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2437" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2437" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>90.66571044921875</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" s="1" t="n">
+        <v>2436</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2438" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2438" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2438" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>90.80418395996094</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" s="1" t="n">
+        <v>2437</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2439" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2439" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2439" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>89.94255828857422</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2440" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2440" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2440" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>90.65032958984375</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" s="1" t="n">
+        <v>2439</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2441" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2441" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2441" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>90.64006805419922</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" s="1" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2442" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2442" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2442" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>91.22986602783203</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" s="1" t="n">
+        <v>2441</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2443" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2443" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2443" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>90.95291900634766</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" s="1" t="n">
+        <v>2442</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2444" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2444" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2444" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>90.25540924072266</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" s="1" t="n">
+        <v>2443</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2445" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2445" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2445" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>91.1939697265625</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" s="1" t="n">
+        <v>2444</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2446" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2446" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2446" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>91.44528198242188</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" s="1" t="n">
+        <v>2445</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2447" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2447" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2447" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>91.65042877197266</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" s="1" t="n">
+        <v>2446</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2448" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2448" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2448" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>91.79402923583984</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" s="1" t="n">
+        <v>2447</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2449" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2449" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2449" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>91.69145965576172</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" s="1" t="n">
+        <v>2448</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2450" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2450" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2450" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>91.76325988769531</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" s="1" t="n">
+        <v>2449</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2451" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2451" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2451" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>91.92224884033203</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" s="1" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2452" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2452" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2452" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>92.01969146728516</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" s="1" t="n">
+        <v>2451</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2453" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2453" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2453" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>71.81249237060547</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" s="1" t="n">
+        <v>2452</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2454" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="D2454" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2454" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>92.06584930419922</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" s="1" t="n">
+        <v>2453</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2455" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2455" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2455" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>80.25438690185547</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" s="1" t="n">
+        <v>2454</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2456" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2456" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2456" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>83.43932342529297</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" s="1" t="n">
+        <v>2455</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2457" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2457" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2457" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>87.21407318115234</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" s="1" t="n">
+        <v>2456</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2458" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2458" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2458" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>87.66027069091797</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" s="1" t="n">
+        <v>2457</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2459" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2459" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2459" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>88.33213806152344</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" s="1" t="n">
+        <v>2458</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2460" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2460" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2460" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>85.59339904785156</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" s="1" t="n">
+        <v>2459</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2461" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2461" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2461" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>88.62447357177734</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" s="1" t="n">
+        <v>2460</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2462" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2462" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2462" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>88.70140075683594</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" s="1" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2463" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2463" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2463" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>89.42455291748047</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" s="1" t="n">
+        <v>2462</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2464" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2464" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2464" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>89.95281219482422</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" s="1" t="n">
+        <v>2463</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2465" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2465" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2465" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>89.86049652099609</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" s="1" t="n">
+        <v>2464</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2466" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2466" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2466" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>89.96820068359375</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" s="1" t="n">
+        <v>2465</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2467" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2467" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2467" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>89.80921173095703</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" s="1" t="n">
+        <v>2466</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2468" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2468" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2468" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>90.27079772949219</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" s="1" t="n">
+        <v>2467</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2469" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2469" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2469" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>90.42465972900391</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" s="1" t="n">
+        <v>2468</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2470" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2470" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2470" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>90.51184844970703</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" s="1" t="n">
+        <v>2469</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2471" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2471" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2471" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>90.850341796875</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" s="1" t="n">
+        <v>2470</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2472" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2472" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2472" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>90.28105926513672</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" s="1" t="n">
+        <v>2471</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2473" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2473" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2473" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>90.72724914550781</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" s="1" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2474" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2474" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2474" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>91.35295867919922</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" s="1" t="n">
+        <v>2473</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2475" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2475" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2475" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>91.14781188964844</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" s="1" t="n">
+        <v>2474</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2476" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2476" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2476" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>91.32218933105469</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" s="1" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2477" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2477" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2477" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>91.52220153808594</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" s="1" t="n">
+        <v>2476</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2478" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2478" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2478" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>91.61452484130859</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" s="1" t="n">
+        <v>2477</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2479" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2479" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2479" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>91.31193542480469</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" s="1" t="n">
+        <v>2478</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2480" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2480" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2480" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>91.53759765625</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" s="1" t="n">
+        <v>2479</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2481" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2481" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2481" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>91.75813293457031</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" s="1" t="n">
+        <v>2480</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2482" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2482" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2482" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>91.67094421386719</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" s="1" t="n">
+        <v>2481</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2483" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="D2483" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2483" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>91.69145965576172</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" s="1" t="n">
+        <v>2482</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2484" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2484" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2484" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>83.81885528564453</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" s="1" t="n">
+        <v>2483</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2485" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2485" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2485" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>88.16288757324219</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" s="1" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2486" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2486" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2486" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>89.75279235839844</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" s="1" t="n">
+        <v>2485</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2487" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2487" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2487" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>90.29130554199219</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" s="1" t="n">
+        <v>2486</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2488" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2488" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2488" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>90.61441802978516</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" s="1" t="n">
+        <v>2487</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2489" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2489" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2489" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>90.75802612304688</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" s="1" t="n">
+        <v>2488</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2490" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2490" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2490" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>91.24012756347656</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" s="1" t="n">
+        <v>2489</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2491" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2491" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2491" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>91.42988586425781</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" s="1" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2492" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2492" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2492" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>91.78890228271484</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" s="1" t="n">
+        <v>2491</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2493" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2493" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2493" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>91.53759765625</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" s="1" t="n">
+        <v>2492</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2494" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2494" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2494" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>91.87096405029297</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" s="1" t="n">
+        <v>2493</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2495" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2495" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2495" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>91.84531402587891</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" s="1" t="n">
+        <v>2494</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2496" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2496" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2496" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>91.97353363037109</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" s="1" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2497" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2497" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2497" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>91.47604370117188</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" s="1" t="n">
+        <v>2496</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2498" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2498" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2498" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>92.15304565429688</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" s="1" t="n">
+        <v>2497</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2499" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2499" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2499" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>92.20945739746094</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" s="1" t="n">
+        <v>2498</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2500" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2500" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2500" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>92.00943756103516</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" s="1" t="n">
+        <v>2499</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2501" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2501" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2501" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>92.12226867675781</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2502" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2502" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2502" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>92.13764953613281</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" s="1" t="n">
+        <v>2501</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2503" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2503" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2503" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>92.32228851318359</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" s="1" t="n">
+        <v>2502</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2504" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2504" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2504" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>92.42486572265625</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" s="1" t="n">
+        <v>2503</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2505" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2505" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2505" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>92.240234375</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" s="1" t="n">
+        <v>2504</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2506" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2506" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2506" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>92.33255004882812</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" s="1" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2507" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2507" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2507" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>92.36844635009766</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" s="1" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2508" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2508" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2508" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>92.19920349121094</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" s="1" t="n">
+        <v>2507</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2509" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2509" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2509" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>92.21458435058594</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" s="1" t="n">
+        <v>2508</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2510" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2510" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2510" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>92.09149169921875</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" s="1" t="n">
+        <v>2509</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2511" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2511" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2511" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>92.02481842041016</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2512" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2512" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2512" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>92.05559539794922</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" s="1" t="n">
+        <v>2511</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2513" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="D2513" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2513" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>92.03507995605469</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2514" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2514" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2514" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>81.99302673339844</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" s="1" t="n">
+        <v>2513</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2515" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2515" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2515" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>87.18843078613281</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2516" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2516" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2516" t="n">
+        <v>300</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>88.06544494628906</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2517" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2517" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2517" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>87.78336334228516</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" s="1" t="n">
+        <v>2516</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2518" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2518" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2518" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>89.54251861572266</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" s="1" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2519" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2519" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2519" t="n">
+        <v>600</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>90.79392242431641</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" s="1" t="n">
+        <v>2518</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2520" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2520" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2520" t="n">
+        <v>700</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>91.08113861083984</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" s="1" t="n">
+        <v>2519</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2521" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2521" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2521" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>90.80931854248047</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" s="1" t="n">
+        <v>2520</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2522" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2522" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2522" t="n">
+        <v>900</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>90.64006805419922</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" s="1" t="n">
+        <v>2521</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2523" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2523" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2523" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>90.94266510009766</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" s="1" t="n">
+        <v>2522</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2524" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2524" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2524" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>91.50169372558594</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" s="1" t="n">
+        <v>2523</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2525" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2525" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2525" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>91.72735595703125</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" s="1" t="n">
+        <v>2524</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2526" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2526" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2526" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>91.94276428222656</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" s="1" t="n">
+        <v>2525</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2527" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2527" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2527" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>91.74787139892578</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" s="1" t="n">
+        <v>2526</v>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2528" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2528" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2528" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2528" t="n">
+        <v>91.97866058349609</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" s="1" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2529" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2529" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2529" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>91.96840667724609</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" s="1" t="n">
+        <v>2528</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2530" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2530" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2530" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>92.02481842041016</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" s="1" t="n">
+        <v>2529</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2531" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2531" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2531" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>92.240234375</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" s="1" t="n">
+        <v>2530</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2532" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2532" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2532" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>92.15304565429688</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" s="1" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2533" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2533" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2533" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>92.05559539794922</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" s="1" t="n">
+        <v>2532</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2534" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2534" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2534" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>92.14791107177734</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" s="1" t="n">
+        <v>2533</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2535" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2535" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2535" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>92.31716156005859</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" s="1" t="n">
+        <v>2534</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2536" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2536" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2536" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>92.48127746582031</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" s="1" t="n">
+        <v>2535</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2537" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2537" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2537" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>92.46589660644531</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" s="1" t="n">
+        <v>2536</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2538" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2538" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2538" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>92.34280395507812</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" s="1" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2539" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2539" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2539" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>92.27613067626953</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" s="1" t="n">
+        <v>2538</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2540" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2540" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2540" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>92.27100372314453</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" s="1" t="n">
+        <v>2539</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2541" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2541" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2541" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>92.36331939697266</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" s="1" t="n">
+        <v>2540</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2542" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2542" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2542" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>92.30177307128906</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" s="1" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="C2543" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="D2543" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2543" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>92.245361328125</v>
       </c>
     </row>
   </sheetData>
